--- a/va_facility_data_2025-02-20/Worcester VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Worcester%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Worcester VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Worcester%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rfcad028153264e9aa97a834c39035479"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4fb76cc2012d46df85971f1e7c0e5954"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf25d2e921ab04539b53404b05e2cf255"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra702100eb6d24436be011cdbce02aec9"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R010a575d7e9f48f58508f846e6f1c2c4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re2cb11b3279d4c16abb3dd874168eea4"/>
   </x:sheets>
 </x:workbook>
 </file>
